--- a/verif_results/exact/datos_verificacion_relu.xlsx
+++ b/verif_results/exact/datos_verificacion_relu.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -631,6 +631,586 @@
         <v>0.3698846449109228</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>50</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="E8" t="n">
+        <v>300.7196838855743</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0.3698846449109228</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>50</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="E9" t="n">
+        <v>255.7447209358215</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0.3698846449109228</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5.962090969085693</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0.9633821529229463</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6.20867657661438</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0.9633821529229463</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6.294945001602173</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0.9633821529229463</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>25</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E13" t="n">
+        <v>26.11971259117126</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>0.5850810723011179</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>25</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E14" t="n">
+        <v>25.03019499778748</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>0.5850810723011179</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="n">
+        <v>25</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E15" t="n">
+        <v>15.71039772033691</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>0.5850810723011179</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="n">
+        <v>50</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E16" t="n">
+        <v>900.0049772262573</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-11.88049480826823</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>&gt;0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" t="n">
+        <v>50</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E17" t="n">
+        <v>900.0027539730072</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-10.52983946763556</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>&gt;0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n">
+        <v>50</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E18" t="n">
+        <v>900.0027387142181</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-11.30102629412438</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>&gt;0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3.953824281692505</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1.721501876289257</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>4</v>
+      </c>
+      <c r="B20" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4.315716743469238</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1.721501876289257</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>4</v>
+      </c>
+      <c r="B21" t="n">
+        <v>10</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3.996348142623901</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1.721501876289257</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>4</v>
+      </c>
+      <c r="B22" t="n">
+        <v>25</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2.971173048019409</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3.226883441993e-17</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>4</v>
+      </c>
+      <c r="B23" t="n">
+        <v>25</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2.067511558532715</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5.430083745707871e-14</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>4</v>
+      </c>
+      <c r="B24" t="n">
+        <v>25</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2.67999529838562</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3.363057586347386e-17</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>4</v>
+      </c>
+      <c r="B25" t="n">
+        <v>50</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E25" t="n">
+        <v>900.0033435821533</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-6.634606783224323</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>&gt;0</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>4</v>
+      </c>
+      <c r="B26" t="n">
+        <v>50</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E26" t="n">
+        <v>900.0022299289703</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-7.032300257895762</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>&gt;0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/verif_results/exact/datos_verificacion_relu.xlsx
+++ b/verif_results/exact/datos_verificacion_relu.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1211,6 +1211,456 @@
         </is>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2</v>
+      </c>
+      <c r="B27" t="n">
+        <v>10</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.393621683120728</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>0.7349470145864299</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2</v>
+      </c>
+      <c r="B28" t="n">
+        <v>10</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.760478496551514</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>0.7349470145864299</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2</v>
+      </c>
+      <c r="B29" t="n">
+        <v>10</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1.636963129043579</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>0.7349470145864299</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2</v>
+      </c>
+      <c r="B30" t="n">
+        <v>25</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.919913291931152</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>0.7271090476451825</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2</v>
+      </c>
+      <c r="B31" t="n">
+        <v>25</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.962707996368408</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>0.7271090476451825</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2</v>
+      </c>
+      <c r="B32" t="n">
+        <v>25</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.917927026748657</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>0.7271090476451825</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>2</v>
+      </c>
+      <c r="B33" t="n">
+        <v>50</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="E33" t="n">
+        <v>134.6590123176575</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>0.3698846449109228</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>2</v>
+      </c>
+      <c r="B34" t="n">
+        <v>50</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="E34" t="n">
+        <v>132.1422989368439</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>0.3698846449109228</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>2</v>
+      </c>
+      <c r="B35" t="n">
+        <v>50</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="E35" t="n">
+        <v>130.3427393436432</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>0.3698846449109228</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>3</v>
+      </c>
+      <c r="B36" t="n">
+        <v>10</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E36" t="n">
+        <v>5.906248569488525</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>0.9633821529229463</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>3</v>
+      </c>
+      <c r="B37" t="n">
+        <v>10</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E37" t="n">
+        <v>6.192520618438721</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>0.9633821529229463</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>3</v>
+      </c>
+      <c r="B38" t="n">
+        <v>10</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E38" t="n">
+        <v>6.17616081237793</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>0.9633821529229463</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>3</v>
+      </c>
+      <c r="B39" t="n">
+        <v>25</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E39" t="n">
+        <v>11.52535891532898</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>0.5850810723011179</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>3</v>
+      </c>
+      <c r="B40" t="n">
+        <v>25</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E40" t="n">
+        <v>11.11664462089539</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>0.5850810723011179</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>3</v>
+      </c>
+      <c r="B41" t="n">
+        <v>25</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E41" t="n">
+        <v>13.60751390457153</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>0.5850810723011179</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/verif_results/exact/datos_verificacion_relu.xlsx
+++ b/verif_results/exact/datos_verificacion_relu.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,32 +434,28 @@
         </is>
       </c>
       <c r="D1" t="n">
-        <v>0.1</v>
+        <v>0.035</v>
       </c>
       <c r="E1" t="n">
-        <v>2.262068271636963</v>
+        <v>1.436160564422607</v>
       </c>
       <c r="F1" t="n">
-        <v>24.32326579093933</v>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>9.221513032913208</v>
+      </c>
+      <c r="G1" t="n">
+        <v>0</v>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I1" t="n">
+        <v>0.7349470145864299</v>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>problem</t>
+          <t>optimal</t>
         </is>
       </c>
     </row>
@@ -476,32 +472,28 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.1</v>
+        <v>0.035</v>
       </c>
       <c r="E2" t="n">
-        <v>2.007283210754395</v>
+        <v>1.766802310943604</v>
       </c>
       <c r="F2" t="n">
-        <v>23.2061083316803</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>9.792630910873413</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0.7349470145864299</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>problem</t>
+          <t>optimal</t>
         </is>
       </c>
     </row>
@@ -518,32 +510,28 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.1</v>
+        <v>0.035</v>
       </c>
       <c r="E3" t="n">
-        <v>2.025099277496338</v>
+        <v>1.565559387207031</v>
       </c>
       <c r="F3" t="n">
-        <v>20.61753630638123</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>9.793477296829224</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0.7349470145864299</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>problem</t>
+          <t>optimal</t>
         </is>
       </c>
     </row>
@@ -560,32 +548,28 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.1</v>
+        <v>0.015</v>
       </c>
       <c r="E4" t="n">
-        <v>7.074757814407349</v>
+        <v>1.970459938049316</v>
       </c>
       <c r="F4" t="n">
-        <v>61.3858847618103</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>4.022206544876099</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0.7271090476451825</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>problem</t>
+          <t>optimal</t>
         </is>
       </c>
     </row>
@@ -602,32 +586,66 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.1</v>
+        <v>0.015</v>
       </c>
       <c r="E5" t="n">
-        <v>6.845218181610107</v>
+        <v>1.920806884765625</v>
       </c>
       <c r="F5" t="n">
-        <v>65.70717906951904</v>
-      </c>
-      <c r="G5" t="inlineStr">
+        <v>3.957240104675293</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0.7271090476451825</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>25</v>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>problem</t>
+      <c r="D6" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.920191526412964</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3.956393718719482</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>0.7271090476451825</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>optimal</t>
         </is>
       </c>
     </row>

--- a/verif_results/exact/datos_verificacion_relu.xlsx
+++ b/verif_results/exact/datos_verificacion_relu.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -649,6 +649,828 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>50</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="E7" t="n">
+        <v>142.6616497039795</v>
+      </c>
+      <c r="F7" t="n">
+        <v>167.2900137901306</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0.3698846449109228</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>50</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="E8" t="n">
+        <v>139.4715347290039</v>
+      </c>
+      <c r="F8" t="n">
+        <v>164.1205594539642</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0.3698846449109228</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>50</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="E9" t="n">
+        <v>142.1485583782196</v>
+      </c>
+      <c r="F9" t="n">
+        <v>167.5884847640991</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>0.3698846449109228</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5.898298740386963</v>
+      </c>
+      <c r="F10" t="n">
+        <v>17.91905379295349</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>0.9633821529229463</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6.106797218322754</v>
+      </c>
+      <c r="F11" t="n">
+        <v>17.96218466758728</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0.9633821529229463</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6.190082788467407</v>
+      </c>
+      <c r="F12" t="n">
+        <v>17.89980244636536</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>0.9633821529229463</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>25</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E13" t="n">
+        <v>12.01955652236938</v>
+      </c>
+      <c r="F13" t="n">
+        <v>46.05465793609619</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>0.5850810723011179</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>25</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E14" t="n">
+        <v>11.09677982330322</v>
+      </c>
+      <c r="F14" t="n">
+        <v>47.93671107292175</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>0.5850810723011179</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="n">
+        <v>25</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E15" t="n">
+        <v>13.87207174301147</v>
+      </c>
+      <c r="F15" t="n">
+        <v>46.03514671325684</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>0.5850810723011179</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="n">
+        <v>50</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.05499999999999999</v>
+      </c>
+      <c r="E16" t="n">
+        <v>900.0024740695953</v>
+      </c>
+      <c r="F16" t="n">
+        <v>8100.024581193924</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>timelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" t="n">
+        <v>50</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0.05499999999999999</v>
+      </c>
+      <c r="E17" t="n">
+        <v>900.002498626709</v>
+      </c>
+      <c r="F17" t="n">
+        <v>8100.031334400177</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>timelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n">
+        <v>50</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0.05499999999999999</v>
+      </c>
+      <c r="E18" t="n">
+        <v>900.0024535655975</v>
+      </c>
+      <c r="F18" t="n">
+        <v>8100.025272846222</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>timelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4.098127603530884</v>
+      </c>
+      <c r="F19" t="n">
+        <v>19.13157653808594</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>1.721501876289257</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>4</v>
+      </c>
+      <c r="B20" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4.268890380859375</v>
+      </c>
+      <c r="F20" t="n">
+        <v>21.10355114936829</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>1.721501876289257</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>4</v>
+      </c>
+      <c r="B21" t="n">
+        <v>10</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3.973483800888062</v>
+      </c>
+      <c r="F21" t="n">
+        <v>19.39491319656372</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>1.721501876289257</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>4</v>
+      </c>
+      <c r="B22" t="n">
+        <v>25</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2.574848890304565</v>
+      </c>
+      <c r="F22" t="n">
+        <v>7.763773441314697</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>3.226883441993e-17</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>4</v>
+      </c>
+      <c r="B23" t="n">
+        <v>25</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2.014556169509888</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3.804614067077637</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>5.430083745707871e-14</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>4</v>
+      </c>
+      <c r="B24" t="n">
+        <v>25</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2.675902605056763</v>
+      </c>
+      <c r="F24" t="n">
+        <v>6.778268098831177</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>3.363057586347386e-17</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>4</v>
+      </c>
+      <c r="B25" t="n">
+        <v>50</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0.05499999999999999</v>
+      </c>
+      <c r="E25" t="n">
+        <v>900.0021598339081</v>
+      </c>
+      <c r="F25" t="n">
+        <v>7670.368802309036</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>timelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>4</v>
+      </c>
+      <c r="B26" t="n">
+        <v>50</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0.05499999999999999</v>
+      </c>
+      <c r="E26" t="n">
+        <v>900.0023891925812</v>
+      </c>
+      <c r="F26" t="n">
+        <v>7799.290866851807</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>timelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>4</v>
+      </c>
+      <c r="B27" t="n">
+        <v>50</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0.05499999999999999</v>
+      </c>
+      <c r="E27" t="n">
+        <v>900.0021321773529</v>
+      </c>
+      <c r="F27" t="n">
+        <v>7817.344272136688</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>timelimit</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
